--- a/RESULTS/Section 4.2/median_mean_distances_EN.xlsx
+++ b/RESULTS/Section 4.2/median_mean_distances_EN.xlsx
@@ -494,7 +494,7 @@
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>2.767088140669132e-20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -521,7 +521,7 @@
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>5.376608334216145e-179</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -548,7 +548,7 @@
         <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>3.050840636100729e-99</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -575,7 +575,7 @@
         <v>1</v>
       </c>
       <c r="G5" t="n">
-        <v>5.32751545007538e-113</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -602,7 +602,7 @@
         <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>4.439238117725971e-36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -629,7 +629,7 @@
         <v>1</v>
       </c>
       <c r="G7" t="n">
-        <v>1.805337259875676e-17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -656,7 +656,7 @@
         <v>1</v>
       </c>
       <c r="G8" t="n">
-        <v>1.852304173343988e-116</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -683,7 +683,7 @@
         <v>1</v>
       </c>
       <c r="G9" t="n">
-        <v>4.353231472696753e-33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -710,7 +710,7 @@
         <v>1</v>
       </c>
       <c r="G10" t="n">
-        <v>3.78097300048036e-28</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -737,7 +737,7 @@
         <v>1</v>
       </c>
       <c r="G11" t="n">
-        <v>7.983292237404024e-09</v>
+        <v>5.050798564436851e-256</v>
       </c>
     </row>
     <row r="12">
@@ -764,7 +764,7 @@
         <v>1</v>
       </c>
       <c r="G12" t="n">
-        <v>1.917404182689562e-19</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -791,7 +791,7 @@
         <v>1</v>
       </c>
       <c r="G13" t="n">
-        <v>1.560105776947006e-165</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -818,7 +818,7 @@
         <v>1</v>
       </c>
       <c r="G14" t="n">
-        <v>8.675690999267061e-62</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -845,7 +845,7 @@
         <v>1</v>
       </c>
       <c r="G15" t="n">
-        <v>8.99475112432596e-76</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -872,7 +872,7 @@
         <v>1</v>
       </c>
       <c r="G16" t="n">
-        <v>1.080885391237607e-13</v>
+        <v>1.982436403432171e-284</v>
       </c>
     </row>
     <row r="17">
@@ -899,7 +899,7 @@
         <v>1</v>
       </c>
       <c r="G17" t="n">
-        <v>2.084853102747305e-22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -926,7 +926,7 @@
         <v>1</v>
       </c>
       <c r="G18" t="n">
-        <v>1.738944281055035e-176</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -953,7 +953,7 @@
         <v>1</v>
       </c>
       <c r="G19" t="n">
-        <v>6.85899950626089e-83</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -980,7 +980,7 @@
         <v>1</v>
       </c>
       <c r="G20" t="n">
-        <v>3.226353390209793e-92</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1007,7 +1007,7 @@
         <v>1</v>
       </c>
       <c r="G21" t="n">
-        <v>2.632103960433232e-19</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
